--- a/contents/battle/battle_4/battle_4_node_map.xlsx
+++ b/contents/battle/battle_4/battle_4_node_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle\battle_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A9FE3-98BA-4C78-8A36-318E58D755E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D56B76-EC89-4B33-97AC-D3A8A4E4B8C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
